--- a/Projects.xlsx
+++ b/Projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme.oliveira\Desktop\Product Development\harpia-prod-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DA3E787-C869-413E-A257-5C0085982231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8279ED3E-CF8F-4E68-813E-FFAB3E3FCD04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{68E67658-DC1C-4170-8C08-AFA6FE3F79FC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Produto</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Mexichem</t>
   </si>
   <si>
-    <t>Adama</t>
-  </si>
-  <si>
     <t>LogInterface</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Conjunto de classes e objetos para controlar integrações outbound de forma dinâmica, usando apenas registros (Metadata ou SObject)</t>
   </si>
   <si>
-    <t>Temos o modelo Inbound, precisa criar o outbound com base no anterior</t>
-  </si>
-  <si>
     <t>Criar documentação para ensinar as pessoas a usar (nos projetos, não usam 100% da funcionalidade)</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>Implementar uma solução consolidada de Check-in/Check-out, utilizando objetos padrão (Event) ou Custom (Visit)</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Provavelmente tem uma funcionalidade implantada legal em algum projeto. Caçar</t>
   </si>
   <si>
@@ -159,9 +150,6 @@
     <t>Bibliotecas de Funções</t>
   </si>
   <si>
-    <t>Classe "Utils" para armazenar diversas funções de uso geral</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -175,6 +163,48 @@
   </si>
   <si>
     <t>Já temos algumas na Siemens para facilitar trabalho com Fieldsets e Picklists, mas tem muito para acrescentar. Já dá pra criar no Repo e ir adicionando com o tempo</t>
+  </si>
+  <si>
+    <t>Guilherme</t>
+  </si>
+  <si>
+    <t>Componente de Lookup</t>
+  </si>
+  <si>
+    <t>Toshio</t>
+  </si>
+  <si>
+    <t>Import Dinâmico de Registros</t>
+  </si>
+  <si>
+    <t>Importação de Registros com base em planilha</t>
+  </si>
+  <si>
+    <t>Tornar dinâmico (definir a melhor forma)</t>
+  </si>
+  <si>
+    <t>Luan</t>
+  </si>
+  <si>
+    <t>Grillo</t>
+  </si>
+  <si>
+    <t>Temos o modelo Inbound, precisa criar o outbound com base no anterior e no código da Siemens</t>
+  </si>
+  <si>
+    <t>Gerdau</t>
+  </si>
+  <si>
+    <t>Classe "Utils" para armazenar diversas funções de uso geral. Precisa classe de teste com 100% de cobertura</t>
+  </si>
+  <si>
+    <t>Tags XP</t>
+  </si>
+  <si>
+    <t>XP</t>
+  </si>
+  <si>
+    <t>Dinamizar alguns campos e documentar</t>
   </si>
 </sst>
 </file>
@@ -210,12 +240,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -233,10 +266,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -262,14 +295,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A706DB33-A858-4F10-9D6B-3FC808510255}" name="Tabela1" displayName="Tabela1" ref="A1:G13" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="A1:G13" xr:uid="{B514F2C9-1B30-4D72-B3E0-49E67D19E41E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A706DB33-A858-4F10-9D6B-3FC808510255}" name="Tabela1" displayName="Tabela1" ref="A1:G16" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:G16" xr:uid="{B514F2C9-1B30-4D72-B3E0-49E67D19E41E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{004D89EB-969E-426A-A61E-DA978E3C1C87}" name="Produto" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{5AB6195A-D8F3-4628-A7CB-A71600E2021F}" name="Utilização" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B924682F-7735-466F-936B-22FCE09D7FF7}" name="Org" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{FD7AEE58-33D4-4632-B48C-E7D56CBFD787}" name="Status" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{85C1F1A6-37C8-4F7F-B268-DA17FEE255ED}" name="O que falta?" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{004D89EB-969E-426A-A61E-DA978E3C1C87}" name="Produto" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{5AB6195A-D8F3-4628-A7CB-A71600E2021F}" name="Utilização" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B924682F-7735-466F-936B-22FCE09D7FF7}" name="Org" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{FD7AEE58-33D4-4632-B48C-E7D56CBFD787}" name="Status" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{85C1F1A6-37C8-4F7F-B268-DA17FEE255ED}" name="O que falta?" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{2525D332-9E23-4943-9BD9-660EF1E09C4D}" name="Responsável" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{B3D388AB-9528-4423-A1B5-3B8EB6B59242}" name="Prazo" dataDxfId="0"/>
   </tableColumns>
@@ -574,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DE1A49-C3A3-4B8A-80A4-F772EF66E071}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,27 +632,27 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -628,28 +661,34 @@
         <v>0.75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44012</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -657,7 +696,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -666,9 +705,11 @@
         <v>0.8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -676,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -685,9 +726,11 @@
         <v>0.9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -695,18 +738,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -714,45 +759,49 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
         <v>0.1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -761,84 +810,153 @@
         <v>0.8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="3">
+        <v>44012</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>0.99</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2">
         <v>0.5</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="3">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3">
+        <v>44012</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
